--- a/Welche Diagnosen wurden zuerst gestellt in Q2, R1.xlsx
+++ b/Welche Diagnosen wurden zuerst gestellt in Q2, R1.xlsx
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.00430416068866571</v>
+        <v>0.00461320085166785</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.005021520803443328</v>
+        <v>0.00532292405961675</v>
       </c>
     </row>
     <row r="6">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.002152080344332855</v>
+        <v>0.0021291696238467</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.07352941176470588</v>
+        <v>0.07523066004258339</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.003228120516499283</v>
+        <v>0.0028388928317956</v>
       </c>
     </row>
     <row r="17">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.003586800573888092</v>
+        <v>0.003548616039744499</v>
       </c>
     </row>
     <row r="23">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.001434720229555237</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="26">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.001434720229555237</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="28">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.001793400286944046</v>
+        <v>0.00177430801987225</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.001076040172166427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="37">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.001076040172166427</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.002152080344332855</v>
+        <v>0.00177430801987225</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.0007173601147776184</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.001434720229555237</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="45">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.001076040172166427</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="47">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.009325681492109038</v>
+        <v>0.009226401703335699</v>
       </c>
     </row>
     <row r="48">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.008967001434720229</v>
+        <v>0.008871540099361249</v>
       </c>
     </row>
     <row r="49">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="52">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.001076040172166427</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="53">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.002510760401721664</v>
+        <v>0.00177430801987225</v>
       </c>
     </row>
     <row r="54">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.00860832137733142</v>
+        <v>0.007452093683463449</v>
       </c>
     </row>
     <row r="55">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="56">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.003945480631276901</v>
+        <v>0.003903477643718949</v>
       </c>
     </row>
     <row r="57">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="58">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.005380200860832138</v>
+        <v>0.00461320085166785</v>
       </c>
     </row>
     <row r="59">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.01076040172166428</v>
+        <v>0.0106458481192335</v>
       </c>
     </row>
     <row r="60">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="61">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.001793400286944046</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="62">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.001793400286944046</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="65">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="66">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="69">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="70">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="71">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.005380200860832138</v>
+        <v>0.0049680624556423</v>
       </c>
     </row>
     <row r="72">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.003228120516499283</v>
+        <v>0.003548616039744499</v>
       </c>
     </row>
     <row r="73">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.001076040172166427</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="74">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.0003586800573888092</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="77">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.0007173601147776184</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="78">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.005380200860832138</v>
+        <v>0.0063875088715401</v>
       </c>
     </row>
     <row r="79">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="80">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.0003586800573888092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.001434720229555237</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="82">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.0003586800573888092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="86">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>0.001076040172166427</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="87">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="88">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.00430416068866571</v>
+        <v>0.003548616039744499</v>
       </c>
     </row>
     <row r="89">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.002510760401721664</v>
+        <v>0.00248403122782115</v>
       </c>
     </row>
     <row r="90">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="91">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.002510760401721664</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="92">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.01219512195121951</v>
+        <v>0.01029098651525905</v>
       </c>
     </row>
     <row r="95">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.005021520803443328</v>
+        <v>0.00461320085166785</v>
       </c>
     </row>
     <row r="96">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="97">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.01076040172166428</v>
+        <v>0.009936124911284599</v>
       </c>
     </row>
     <row r="98">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.002869440459110474</v>
+        <v>0.00319375443577005</v>
       </c>
     </row>
     <row r="99">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.003586800573888092</v>
+        <v>0.003548616039744499</v>
       </c>
     </row>
     <row r="100">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.003586800573888092</v>
+        <v>0.003548616039744499</v>
       </c>
     </row>
     <row r="101">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.001434720229555237</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="102">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.2069583931133429</v>
+        <v>0.2083037615330021</v>
       </c>
     </row>
     <row r="103">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.02905308464849354</v>
+        <v>0.0298083747338538</v>
       </c>
     </row>
     <row r="104">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.05667144906743185</v>
+        <v>0.05748757984386089</v>
       </c>
     </row>
     <row r="105">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.02080344332855093</v>
+        <v>0.0227111426543648</v>
       </c>
     </row>
     <row r="106">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.05093256814921091</v>
+        <v>0.05322924059616749</v>
       </c>
     </row>
     <row r="107">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="108">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.0003586800573888092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>0.001434720229555237</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="111">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.0118364418938307</v>
+        <v>0.0127750177430802</v>
       </c>
     </row>
     <row r="112">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.002510760401721664</v>
+        <v>0.00248403122782115</v>
       </c>
     </row>
     <row r="113">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.00860832137733142</v>
+        <v>0.007806955287437899</v>
       </c>
     </row>
     <row r="114">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.003945480631276901</v>
+        <v>0.00461320085166785</v>
       </c>
     </row>
     <row r="116">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.004662840746054519</v>
+        <v>0.00461320085166785</v>
       </c>
     </row>
     <row r="118">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="120">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.0007173601147776184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="122">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="123">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.002510760401721664</v>
+        <v>0.0028388928317956</v>
       </c>
     </row>
     <row r="125">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.0003586800573888092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="128">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.001434720229555237</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="129">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.002152080344332855</v>
+        <v>0.00177430801987225</v>
       </c>
     </row>
     <row r="130">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.002869440459110474</v>
+        <v>0.0021291696238467</v>
       </c>
     </row>
     <row r="132">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>0.004662840746054519</v>
+        <v>0.003903477643718949</v>
       </c>
     </row>
     <row r="133">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.005738880918220947</v>
+        <v>0.0063875088715401</v>
       </c>
     </row>
     <row r="134">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="135">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.002510760401721664</v>
+        <v>0.00248403122782115</v>
       </c>
     </row>
     <row r="136">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.003228120516499283</v>
+        <v>0.00319375443577005</v>
       </c>
     </row>
     <row r="137">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.02367288378766141</v>
+        <v>0.0255500354861604</v>
       </c>
     </row>
     <row r="138">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.005021520803443328</v>
+        <v>0.003548616039744499</v>
       </c>
     </row>
     <row r="139">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.001793400286944046</v>
+        <v>0.0021291696238467</v>
       </c>
     </row>
     <row r="140">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.007532281205164993</v>
+        <v>0.007097232079488999</v>
       </c>
     </row>
     <row r="141">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.001434720229555237</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="142">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="144">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.001434720229555237</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="145">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>0.003228120516499283</v>
+        <v>0.0028388928317956</v>
       </c>
     </row>
     <row r="148">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="149">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>0.009325681492109038</v>
+        <v>0.009581263307310149</v>
       </c>
     </row>
     <row r="151">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>0.001076040172166427</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="152">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="154">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="155">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="175">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="176">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="179">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.0007173601147776184</v>
+        <v>0.0007097232079489</v>
       </c>
     </row>
     <row r="184">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>0.07101865136298421</v>
+        <v>0.07416607523066004</v>
       </c>
     </row>
     <row r="187">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.009684361549497847</v>
+        <v>0.009581263307310149</v>
       </c>
     </row>
     <row r="188">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.001434720229555237</v>
+        <v>0.00177430801987225</v>
       </c>
     </row>
     <row r="189">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.003228120516499283</v>
+        <v>0.00319375443577005</v>
       </c>
     </row>
     <row r="190">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>0.002510760401721664</v>
+        <v>0.00248403122782115</v>
       </c>
     </row>
     <row r="191">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.001793400286944046</v>
+        <v>0.0021291696238467</v>
       </c>
     </row>
     <row r="192">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>0.001434720229555237</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="193">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.05308464849354376</v>
+        <v>0.05429382540809084</v>
       </c>
     </row>
     <row r="194">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>0.0007173601147776184</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="195">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>0.003945480631276901</v>
+        <v>0.00461320085166785</v>
       </c>
     </row>
     <row r="198">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>0.0007173601147776184</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="200">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.001076040172166427</v>
+        <v>0.0021291696238467</v>
       </c>
     </row>
     <row r="202">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="203">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>0.001076040172166427</v>
+        <v>0.00106458481192335</v>
       </c>
     </row>
     <row r="204">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="205">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="207">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="208">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="209">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.001434720229555237</v>
+        <v>0.0014194464158978</v>
       </c>
     </row>
     <row r="211">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="212">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="218">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.003228120516499283</v>
+        <v>0.00248403122782115</v>
       </c>
     </row>
     <row r="219">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>0.0003586800573888092</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="220">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>0.007890961262553802</v>
+        <v>0.008871540099361249</v>
       </c>
     </row>
     <row r="221">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0.02152080344332855</v>
+        <v>0.021291696238467</v>
       </c>
     </row>
     <row r="230">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.01291248206599713</v>
+        <v>0.01029098651525905</v>
       </c>
     </row>
     <row r="231">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.002510760401721664</v>
+        <v>0.00248403122782115</v>
       </c>
     </row>
     <row r="233">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>0.0007173601147776184</v>
+        <v>0.00035486160397445</v>
       </c>
     </row>
     <row r="234">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>0.003586800573888092</v>
+        <v>0.0028388928317956</v>
       </c>
     </row>
     <row r="235">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>0.00860832137733142</v>
+        <v>0.007806955287437899</v>
       </c>
     </row>
     <row r="236">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>0.05164992826398852</v>
+        <v>0.05429382540809084</v>
       </c>
     </row>
     <row r="237">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>0.01004304160688666</v>
+        <v>0.009936124911284599</v>
       </c>
     </row>
   </sheetData>
